--- a/artfynd/A 41492-2022.xlsx
+++ b/artfynd/A 41492-2022.xlsx
@@ -1140,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111670690</v>
+        <v>111671148</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,31 +1152,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1184,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>557809.1117697239</v>
+        <v>557930.9937661786</v>
       </c>
       <c r="R6" t="n">
-        <v>7067699.199123298</v>
+        <v>7067802.902090888</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1257,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111671148</v>
+        <v>111671159</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>81248</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1273,21 +1272,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>557930.9937661786</v>
+        <v>558006.0394731871</v>
       </c>
       <c r="R7" t="n">
-        <v>7067802.902090888</v>
+        <v>7067389.087574247</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1489,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111671159</v>
+        <v>111670912</v>
       </c>
       <c r="B9" t="n">
-        <v>81248</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,21 +1504,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>558006.0394731871</v>
+        <v>557803.3534448177</v>
       </c>
       <c r="R9" t="n">
-        <v>7067389.087574247</v>
+        <v>7067771.317107533</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1605,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111670912</v>
+        <v>111670690</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1617,30 +1616,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557803.3534448177</v>
+        <v>557809.1117697239</v>
       </c>
       <c r="R10" t="n">
-        <v>7067771.317107533</v>
+        <v>7067699.199123298</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>

--- a/artfynd/A 41492-2022.xlsx
+++ b/artfynd/A 41492-2022.xlsx
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111671159</v>
+        <v>111670912</v>
       </c>
       <c r="B7" t="n">
-        <v>81248</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,21 +1272,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>558006.0394731871</v>
+        <v>557803.3534448177</v>
       </c>
       <c r="R7" t="n">
-        <v>7067389.087574247</v>
+        <v>7067771.317107533</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111671165</v>
+        <v>111671159</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>81248</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1388,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>558014.2710882163</v>
+        <v>558006.0394731871</v>
       </c>
       <c r="R8" t="n">
-        <v>7067448.175823289</v>
+        <v>7067389.087574247</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670912</v>
+        <v>111671165</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557803.3534448177</v>
+        <v>558014.2710882163</v>
       </c>
       <c r="R9" t="n">
-        <v>7067771.317107533</v>
+        <v>7067448.175823289</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>

--- a/artfynd/A 41492-2022.xlsx
+++ b/artfynd/A 41492-2022.xlsx
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111670912</v>
+        <v>111670690</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,30 +1268,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1299,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>557803.3534448177</v>
+        <v>557809.1117697239</v>
       </c>
       <c r="R7" t="n">
-        <v>7067771.317107533</v>
+        <v>7067699.199123298</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1372,10 +1373,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111671159</v>
+        <v>111671165</v>
       </c>
       <c r="B8" t="n">
-        <v>81248</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1389,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>558006.0394731871</v>
+        <v>558014.2710882163</v>
       </c>
       <c r="R8" t="n">
-        <v>7067389.087574247</v>
+        <v>7067448.175823289</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,7 +1489,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111671165</v>
+        <v>111670912</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1531,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>558014.2710882163</v>
+        <v>557803.3534448177</v>
       </c>
       <c r="R9" t="n">
-        <v>7067448.175823289</v>
+        <v>7067771.317107533</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1604,10 +1605,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111670690</v>
+        <v>111671159</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>81248</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,31 +1617,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557809.1117697239</v>
+        <v>558006.0394731871</v>
       </c>
       <c r="R10" t="n">
-        <v>7067699.199123298</v>
+        <v>7067389.087574247</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>

--- a/artfynd/A 41492-2022.xlsx
+++ b/artfynd/A 41492-2022.xlsx
@@ -1140,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111671148</v>
+        <v>111671159</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>81248</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,21 +1156,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>557930.9937661786</v>
+        <v>558006.0394731871</v>
       </c>
       <c r="R6" t="n">
-        <v>7067802.902090888</v>
+        <v>7067389.087574247</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111670690</v>
+        <v>111671165</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,31 +1268,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1300,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>557809.1117697239</v>
+        <v>558014.2710882163</v>
       </c>
       <c r="R7" t="n">
-        <v>7067699.199123298</v>
+        <v>7067448.175823289</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1373,7 +1372,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111671165</v>
+        <v>111670912</v>
       </c>
       <c r="B8" t="n">
         <v>78578</v>
@@ -1416,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>558014.2710882163</v>
+        <v>557803.3534448177</v>
       </c>
       <c r="R8" t="n">
-        <v>7067448.175823289</v>
+        <v>7067771.317107533</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1489,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670912</v>
+        <v>111670690</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,30 +1500,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557803.3534448177</v>
+        <v>557809.1117697239</v>
       </c>
       <c r="R9" t="n">
-        <v>7067771.317107533</v>
+        <v>7067699.199123298</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111671159</v>
+        <v>111671148</v>
       </c>
       <c r="B10" t="n">
-        <v>81248</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,21 +1621,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>558006.0394731871</v>
+        <v>557930.9937661786</v>
       </c>
       <c r="R10" t="n">
-        <v>7067389.087574247</v>
+        <v>7067802.902090888</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>

--- a/artfynd/A 41492-2022.xlsx
+++ b/artfynd/A 41492-2022.xlsx
@@ -1140,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111671159</v>
+        <v>111671148</v>
       </c>
       <c r="B6" t="n">
-        <v>81248</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,21 +1156,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>558006.0394731871</v>
+        <v>557930.9937661786</v>
       </c>
       <c r="R6" t="n">
-        <v>7067389.087574247</v>
+        <v>7067802.902090888</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111671165</v>
+        <v>111671159</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>81248</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,21 +1272,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>558014.2710882163</v>
+        <v>558006.0394731871</v>
       </c>
       <c r="R7" t="n">
-        <v>7067448.175823289</v>
+        <v>7067389.087574247</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111670912</v>
+        <v>111670690</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,30 +1384,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1415,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>557803.3534448177</v>
+        <v>557809.1117697239</v>
       </c>
       <c r="R8" t="n">
-        <v>7067771.317107533</v>
+        <v>7067699.199123298</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,10 +1489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670690</v>
+        <v>111670912</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,31 +1501,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557809.1117697239</v>
+        <v>557803.3534448177</v>
       </c>
       <c r="R9" t="n">
-        <v>7067699.199123298</v>
+        <v>7067771.317107533</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111671148</v>
+        <v>111671165</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,21 +1621,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557930.9937661786</v>
+        <v>558014.2710882163</v>
       </c>
       <c r="R10" t="n">
-        <v>7067802.902090888</v>
+        <v>7067448.175823289</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>

--- a/artfynd/A 41492-2022.xlsx
+++ b/artfynd/A 41492-2022.xlsx
@@ -1140,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111671148</v>
+        <v>111671159</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>81248</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,21 +1156,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>557930.9937661786</v>
+        <v>558006.0394731871</v>
       </c>
       <c r="R6" t="n">
-        <v>7067802.902090888</v>
+        <v>7067389.087574247</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111671159</v>
+        <v>111671165</v>
       </c>
       <c r="B7" t="n">
-        <v>81248</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,21 +1272,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>558006.0394731871</v>
+        <v>558014.2710882163</v>
       </c>
       <c r="R7" t="n">
-        <v>7067389.087574247</v>
+        <v>7067448.175823289</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111670690</v>
+        <v>111671148</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,31 +1384,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1416,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>557809.1117697239</v>
+        <v>557930.9937661786</v>
       </c>
       <c r="R8" t="n">
-        <v>7067699.199123298</v>
+        <v>7067802.902090888</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1489,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670912</v>
+        <v>111670690</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,30 +1500,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557803.3534448177</v>
+        <v>557809.1117697239</v>
       </c>
       <c r="R9" t="n">
-        <v>7067771.317107533</v>
+        <v>7067699.199123298</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111671165</v>
+        <v>111670912</v>
       </c>
       <c r="B10" t="n">
         <v>78578</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>558014.2710882163</v>
+        <v>557803.3534448177</v>
       </c>
       <c r="R10" t="n">
-        <v>7067448.175823289</v>
+        <v>7067771.317107533</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>

--- a/artfynd/A 41492-2022.xlsx
+++ b/artfynd/A 41492-2022.xlsx
@@ -1256,7 +1256,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111671165</v>
+        <v>111670912</v>
       </c>
       <c r="B7" t="n">
         <v>78578</v>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>558014.2710882163</v>
+        <v>557803.3534448177</v>
       </c>
       <c r="R7" t="n">
-        <v>7067448.175823289</v>
+        <v>7067771.317107533</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111671148</v>
+        <v>111671165</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1388,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>557930.9937661786</v>
+        <v>558014.2710882163</v>
       </c>
       <c r="R8" t="n">
-        <v>7067802.902090888</v>
+        <v>7067448.175823289</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670690</v>
+        <v>111671148</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,31 +1500,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1532,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557809.1117697239</v>
+        <v>557930.9937661786</v>
       </c>
       <c r="R9" t="n">
-        <v>7067699.199123298</v>
+        <v>7067802.902090888</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1605,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111670912</v>
+        <v>111670690</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1617,30 +1616,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557803.3534448177</v>
+        <v>557809.1117697239</v>
       </c>
       <c r="R10" t="n">
-        <v>7067771.317107533</v>
+        <v>7067699.199123298</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>

--- a/artfynd/A 41492-2022.xlsx
+++ b/artfynd/A 41492-2022.xlsx
@@ -1140,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111671159</v>
+        <v>111670912</v>
       </c>
       <c r="B6" t="n">
-        <v>81248</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,21 +1156,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>558006.0394731871</v>
+        <v>557803.3534448177</v>
       </c>
       <c r="R6" t="n">
-        <v>7067389.087574247</v>
+        <v>7067771.317107533</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111670912</v>
+        <v>111671165</v>
       </c>
       <c r="B7" t="n">
         <v>78578</v>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>557803.3534448177</v>
+        <v>558014.2710882163</v>
       </c>
       <c r="R7" t="n">
-        <v>7067771.317107533</v>
+        <v>7067448.175823289</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111671165</v>
+        <v>111671148</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1388,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>558014.2710882163</v>
+        <v>557930.9937661786</v>
       </c>
       <c r="R8" t="n">
-        <v>7067448.175823289</v>
+        <v>7067802.902090888</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111671148</v>
+        <v>111670690</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,30 +1500,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1531,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557930.9937661786</v>
+        <v>557809.1117697239</v>
       </c>
       <c r="R9" t="n">
-        <v>7067802.902090888</v>
+        <v>7067699.199123298</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1604,10 +1605,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111670690</v>
+        <v>111671159</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>81248</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,31 +1617,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557809.1117697239</v>
+        <v>558006.0394731871</v>
       </c>
       <c r="R10" t="n">
-        <v>7067699.199123298</v>
+        <v>7067389.087574247</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>

--- a/artfynd/A 41492-2022.xlsx
+++ b/artfynd/A 41492-2022.xlsx
@@ -1140,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111670912</v>
+        <v>111670690</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,30 +1152,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1183,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>557803.3534448177</v>
+        <v>557809.1117697239</v>
       </c>
       <c r="R6" t="n">
-        <v>7067771.317107533</v>
+        <v>7067699.199123298</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1372,10 +1373,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111671148</v>
+        <v>111670912</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1389,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>557930.9937661786</v>
+        <v>557803.3534448177</v>
       </c>
       <c r="R8" t="n">
-        <v>7067802.902090888</v>
+        <v>7067771.317107533</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,10 +1489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670690</v>
+        <v>111671148</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,31 +1501,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557809.1117697239</v>
+        <v>557930.9937661786</v>
       </c>
       <c r="R9" t="n">
-        <v>7067699.199123298</v>
+        <v>7067802.902090888</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>

--- a/artfynd/A 41492-2022.xlsx
+++ b/artfynd/A 41492-2022.xlsx
@@ -1140,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111670690</v>
+        <v>111671148</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,31 +1152,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1184,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>557809.1117697239</v>
+        <v>557931</v>
       </c>
       <c r="R6" t="n">
-        <v>7067699.199123298</v>
+        <v>7067803</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1217,19 +1216,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1257,7 +1246,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111671165</v>
+        <v>111670912</v>
       </c>
       <c r="B7" t="n">
         <v>78578</v>
@@ -1300,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>558014.2710882163</v>
+        <v>557803</v>
       </c>
       <c r="R7" t="n">
-        <v>7067448.175823289</v>
+        <v>7067771</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1333,19 +1322,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1373,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111670912</v>
+        <v>111670690</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1385,30 +1364,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1416,10 +1396,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>557803.3534448177</v>
+        <v>557809</v>
       </c>
       <c r="R8" t="n">
-        <v>7067771.317107533</v>
+        <v>7067699</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1449,19 +1429,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1489,10 +1459,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111671148</v>
+        <v>111671159</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>81248</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,21 +1475,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1502,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557930.9937661786</v>
+        <v>558006</v>
       </c>
       <c r="R9" t="n">
-        <v>7067802.902090888</v>
+        <v>7067389</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1565,19 +1535,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1605,10 +1565,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111671159</v>
+        <v>111671165</v>
       </c>
       <c r="B10" t="n">
-        <v>81248</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,21 +1581,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1608,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>558006.0394731871</v>
+        <v>558014</v>
       </c>
       <c r="R10" t="n">
-        <v>7067389.087574247</v>
+        <v>7067448</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1681,19 +1641,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
